--- a/data/mpox_meta_results_march_2024.xlsx
+++ b/data/mpox_meta_results_march_2024.xlsx
@@ -3491,8 +3491,7 @@
       <c r="D28" s="9">
         <v>2127.0</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9">
+      <c r="E28" s="9">
         <v>7.6041</v>
       </c>
       <c r="G28" s="9">
@@ -3713,8 +3712,7 @@
       <c r="D36" s="9">
         <v>346.0</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9">
+      <c r="E36" s="9">
         <v>8.3047</v>
       </c>
       <c r="G36" s="9">
